--- a/excel/Template.xlsx
+++ b/excel/Template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\AutomationTestSuite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293183CA-7088-4E17-9E16-8344902855FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060CC434-CD91-4507-8A31-DB23630FB021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{AF14A077-A23C-4913-8C40-7CFF0597FBC4}"/>
+    <workbookView xWindow="9510" yWindow="765" windowWidth="19380" windowHeight="10380" xr2:uid="{AF14A077-A23C-4913-8C40-7CFF0597FBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="10" r:id="rId1"/>
     <sheet name="Dropdown" sheetId="4" r:id="rId2"/>
     <sheet name="Page Elements" sheetId="13" r:id="rId3"/>
-    <sheet name="amazon product page details" sheetId="7" r:id="rId4"/>
+    <sheet name="amazon product details" sheetId="7" r:id="rId4"/>
     <sheet name="amazon product urls" sheetId="8" r:id="rId5"/>
     <sheet name="template" sheetId="11" r:id="rId6"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="219">
   <si>
     <t>Test Name</t>
   </si>
@@ -341,9 +341,6 @@
     <t>to be checked</t>
   </si>
   <si>
-    <t>end loop continous</t>
-  </si>
-  <si>
     <t>to be disabled</t>
   </si>
   <si>
@@ -684,6 +681,12 @@
   </si>
   <si>
     <t>Feature</t>
+  </si>
+  <si>
+    <t>end loop continuous</t>
+  </si>
+  <si>
+    <t>Create html</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1362,18 +1365,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1381,11 +1376,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1395,11 +1385,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1415,6 +1401,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1732,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317D1DB-5C3E-4320-8ED1-BC4F63A69614}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1747,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1763,7 +1758,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1776,7 +1771,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1793,148 +1788,148 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="90" t="s">
         <v>157</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="64" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="64"/>
+      <c r="C8" s="90"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="64"/>
+      <c r="C9" s="90"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="64"/>
+      <c r="C10" s="90"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="64"/>
+      <c r="C11" s="90"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="64"/>
+      <c r="C12" s="90"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="64"/>
+      <c r="C13" s="90"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="3" t="b">
         <f>B4</f>
         <v>1</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="90"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="64"/>
+      <c r="C15" s="90"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="64"/>
+      <c r="C16" s="90"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="64"/>
+      <c r="C17" s="90"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="64"/>
+      <c r="C18" s="90"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="64"/>
+      <c r="C19" s="90"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="64"/>
+      <c r="C20" s="90"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="64"/>
+      <c r="C21" s="90"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="64"/>
+      <c r="C22" s="90"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="64"/>
+      <c r="C23" s="90"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="64"/>
+      <c r="C24" s="90"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="64"/>
+      <c r="C25" s="90"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="64"/>
+      <c r="C26" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1959,8 +1954,8 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2016,10 +2011,10 @@
         <v>58</v>
       </c>
       <c r="M1" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="56" t="s">
         <v>186</v>
-      </c>
-      <c r="N1" s="56" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2066,7 +2061,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="D4" s="48" t="s">
         <v>10</v>
@@ -2078,7 +2073,7 @@
         <v>51</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="41"/>
       <c r="I4" s="52"/>
@@ -2095,7 +2090,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="52"/>
@@ -2110,7 +2105,7 @@
       <c r="E6" s="49"/>
       <c r="F6" s="42"/>
       <c r="G6" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="52"/>
@@ -2125,7 +2120,7 @@
       <c r="E7" s="49"/>
       <c r="F7" s="42"/>
       <c r="G7" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H7" s="41"/>
       <c r="I7" s="52"/>
@@ -2142,7 +2137,7 @@
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="52"/>
@@ -2155,11 +2150,11 @@
         <v>17</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="52"/>
@@ -2174,11 +2169,11 @@
       <c r="E10" s="49"/>
       <c r="F10" s="42"/>
       <c r="G10" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="53"/>
@@ -2186,7 +2181,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D11" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="42"/>
@@ -2195,7 +2190,7 @@
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J11" s="36"/>
       <c r="K11" s="53"/>
@@ -2208,13 +2203,13 @@
       <c r="E12" s="49"/>
       <c r="F12" s="42"/>
       <c r="G12" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I12" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="53"/>
@@ -2227,13 +2222,13 @@
       <c r="E13" s="49"/>
       <c r="F13" s="42"/>
       <c r="G13" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>59</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J13" s="36"/>
       <c r="K13" s="53"/>
@@ -2246,13 +2241,13 @@
       <c r="E14" s="49"/>
       <c r="F14" s="42"/>
       <c r="G14" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J14" s="36"/>
       <c r="K14" s="53"/>
@@ -2265,13 +2260,13 @@
       <c r="E15" s="49"/>
       <c r="F15" s="42"/>
       <c r="G15" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I15" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J15" s="36"/>
       <c r="K15" s="53"/>
@@ -2284,13 +2279,13 @@
       <c r="E16" s="49"/>
       <c r="F16" s="42"/>
       <c r="G16" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I16" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="53"/>
@@ -2303,13 +2298,13 @@
       <c r="E17" s="49"/>
       <c r="F17" s="42"/>
       <c r="G17" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H17" s="41" t="s">
         <v>31</v>
       </c>
       <c r="I17" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J17" s="36"/>
       <c r="K17" s="53"/>
@@ -2324,13 +2319,13 @@
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J18" s="36"/>
       <c r="K18" s="53"/>
@@ -2343,13 +2338,13 @@
       <c r="E19" s="49"/>
       <c r="F19" s="42"/>
       <c r="G19" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I19" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J19" s="36"/>
       <c r="K19" s="53"/>
@@ -2362,13 +2357,13 @@
       <c r="E20" s="49"/>
       <c r="F20" s="42"/>
       <c r="G20" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I20" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" s="36"/>
       <c r="K20" s="53"/>
@@ -2381,10 +2376,10 @@
       <c r="E21" s="49"/>
       <c r="F21" s="42"/>
       <c r="G21" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="36"/>
@@ -2400,10 +2395,10 @@
       <c r="E22" s="49"/>
       <c r="F22" s="42"/>
       <c r="G22" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="36"/>
@@ -2417,7 +2412,7 @@
       <c r="E23" s="49"/>
       <c r="F23" s="42"/>
       <c r="G23" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H23" s="41" t="s">
         <v>59</v>
@@ -2434,10 +2429,10 @@
       <c r="E24" s="49"/>
       <c r="F24" s="42"/>
       <c r="G24" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I24" s="54"/>
       <c r="J24" s="36"/>
@@ -2451,7 +2446,7 @@
       <c r="E25" s="49"/>
       <c r="F25" s="42"/>
       <c r="G25" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H25" s="41" t="s">
         <v>84</v>
@@ -2470,7 +2465,7 @@
       <c r="E26" s="49"/>
       <c r="F26" s="42"/>
       <c r="G26" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H26" s="41" t="s">
         <v>81</v>
@@ -2479,7 +2474,7 @@
       <c r="J26" s="36"/>
       <c r="K26" s="53"/>
       <c r="L26" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -2489,14 +2484,14 @@
       <c r="E27" s="49"/>
       <c r="F27" s="42"/>
       <c r="G27" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H27" s="41"/>
       <c r="I27" s="54"/>
       <c r="J27" s="36"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -2506,11 +2501,11 @@
       <c r="E28" s="49"/>
       <c r="F28" s="42"/>
       <c r="G28" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="41"/>
       <c r="I28" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J28" s="36"/>
       <c r="K28" s="53"/>
@@ -2523,7 +2518,7 @@
       <c r="E29" s="49"/>
       <c r="F29" s="42"/>
       <c r="G29" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H29" s="41"/>
       <c r="I29" s="54"/>
@@ -2533,12 +2528,12 @@
     </row>
     <row r="30" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D30" s="61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="49"/>
       <c r="F30" s="42"/>
       <c r="G30" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H30" s="41"/>
       <c r="I30" s="54"/>
@@ -2548,21 +2543,21 @@
     </row>
     <row r="31" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D31" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H31" s="41"/>
       <c r="I31" s="54"/>
       <c r="J31" s="36"/>
       <c r="K31" s="53"/>
       <c r="L31" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -2572,7 +2567,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="42"/>
       <c r="G32" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H32" s="41"/>
       <c r="I32" s="37"/>
@@ -2585,7 +2580,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="42"/>
       <c r="G33" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="37"/>
@@ -2598,7 +2593,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="42"/>
       <c r="G34" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H34" s="41"/>
       <c r="I34" s="37"/>
@@ -2611,7 +2606,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="42"/>
       <c r="G35" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H35" s="41"/>
       <c r="I35" s="37"/>
@@ -2624,7 +2619,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="42"/>
       <c r="G36" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H36" s="41"/>
       <c r="I36" s="37"/>
@@ -2637,7 +2632,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="42"/>
       <c r="G37" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H37" s="41"/>
       <c r="I37" s="37"/>
@@ -2650,10 +2645,10 @@
       <c r="E38" s="37"/>
       <c r="F38" s="42"/>
       <c r="G38" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H38" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I38" s="37"/>
       <c r="K38" s="37"/>
@@ -2665,7 +2660,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="42"/>
       <c r="G39" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H39" s="41" t="s">
         <v>59</v>
@@ -2680,7 +2675,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="42"/>
       <c r="G40" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H40" s="41" t="s">
         <v>59</v>
@@ -2698,7 +2693,7 @@
         <v>96</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I41" s="37"/>
       <c r="K41" s="37"/>
@@ -2710,10 +2705,10 @@
       <c r="E42" s="37"/>
       <c r="F42" s="42"/>
       <c r="G42" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I42" s="37"/>
       <c r="K42" s="37"/>
@@ -2725,7 +2720,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="42"/>
       <c r="G43" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H43" s="41" t="s">
         <v>31</v>
@@ -2740,10 +2735,10 @@
       <c r="E44" s="37"/>
       <c r="F44" s="42"/>
       <c r="G44" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I44" s="37"/>
       <c r="K44" s="37"/>
@@ -2755,10 +2750,10 @@
       <c r="E45" s="37"/>
       <c r="F45" s="42"/>
       <c r="G45" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I45" s="37"/>
       <c r="K45" s="37"/>
@@ -2770,10 +2765,10 @@
       <c r="E46" s="37"/>
       <c r="F46" s="42"/>
       <c r="G46" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I46" s="37"/>
       <c r="K46" s="37"/>
@@ -2781,25 +2776,25 @@
     <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F47" s="42"/>
       <c r="G47" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F48" s="42"/>
       <c r="G48" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H48" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F49" s="42"/>
       <c r="G49" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H49" s="41" t="s">
         <v>59</v>
@@ -2808,16 +2803,16 @@
     <row r="50" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F50" s="42"/>
       <c r="G50" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H50" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F51" s="42"/>
       <c r="G51" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H51" s="41" t="s">
         <v>84</v>
@@ -2826,7 +2821,7 @@
     <row r="52" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F52" s="42"/>
       <c r="G52" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H52" s="41" t="s">
         <v>81</v>
@@ -2835,7 +2830,7 @@
     <row r="53" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F53" s="42"/>
       <c r="G53" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H53" s="41"/>
     </row>
@@ -2913,7 +2908,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07532E9C-BAA9-4854-9AA1-F545AA390304}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
@@ -2926,121 +2921,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="73" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="69"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="B3" s="66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="B4" s="66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="69"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="69"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="B7" s="67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+      <c r="B8" s="66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="69"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="69"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="B11" s="67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="B12" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="72" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
+      <c r="B13" s="67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="67" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="72" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="67" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3049,10 +3030,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB6AC3C-1F6F-454E-8ECB-F3E18E6A0BC8}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3165,10 +3146,10 @@
         <v>58</v>
       </c>
       <c r="O2" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="23" t="s">
         <v>186</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3201,7 +3182,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="66" t="str">
+      <c r="D4" s="65" t="str">
         <f>'Page Elements'!B3</f>
         <v>//input[@id="twotabsearchtextbox"]</v>
       </c>
@@ -3232,7 +3213,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="24"/>
-      <c r="D5" s="74" t="str">
+      <c r="D5" s="68" t="str">
         <f>'Page Elements'!B4</f>
         <v>//input[@id='nav-search-submit-button']</v>
       </c>
@@ -3261,7 +3242,7 @@
       <c r="C6" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="74"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
@@ -3283,7 +3264,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="75" t="str">
+      <c r="D7" s="69" t="str">
         <f>'Page Elements'!B8</f>
         <v>.s-pagination-next</v>
       </c>
@@ -3310,7 +3291,7 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="75"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
         <v>74</v>
@@ -3334,7 +3315,7 @@
         <v>75</v>
       </c>
       <c r="C9" s="29"/>
-      <c r="D9" s="76" t="str">
+      <c r="D9" s="70" t="str">
         <f>'Page Elements'!B7</f>
         <v>//span[@class='a-size-medium a-color-base a-text-normal']</v>
       </c>
@@ -3361,7 +3342,7 @@
         <v>78</v>
       </c>
       <c r="C10" s="29"/>
-      <c r="D10" s="76"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="30"/>
       <c r="F10" s="29" t="s">
         <v>44</v>
@@ -3385,7 +3366,7 @@
       <c r="C11" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="76"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="30"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -3407,7 +3388,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="76"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="30"/>
       <c r="F12" s="29" t="s">
         <v>48</v>
@@ -3433,7 +3414,7 @@
         <v>82</v>
       </c>
       <c r="C13" s="29"/>
-      <c r="D13" s="76" t="str">
+      <c r="D13" s="70" t="str">
         <f>'Page Elements'!B11</f>
         <v>#productTitle</v>
       </c>
@@ -3470,7 +3451,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="76" t="str">
+      <c r="D14" s="70" t="str">
         <f>'Page Elements'!B13</f>
         <v>#acrCustomerReviewText</v>
       </c>
@@ -3503,7 +3484,7 @@
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
@@ -3529,13 +3510,13 @@
         <v>89</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="79" t="str">
+      <c r="D16" s="30" t="str">
         <f>'Page Elements'!B12</f>
         <v>//div[@class='a-section a-spacing-none aok-align-center aok-relative']</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="29" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="29" t="s">
@@ -3561,7 +3542,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="30" t="str">
@@ -3581,7 +3562,7 @@
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L17" s="29">
         <v>1000</v>
@@ -3596,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="30" t="str">
@@ -3616,7 +3597,7 @@
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L18" s="29">
         <v>1000</v>
@@ -3625,7 +3606,7 @@
       <c r="N18" s="31"/>
       <c r="O18" s="29"/>
       <c r="P18" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3633,7 +3614,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="30" t="str">
@@ -3653,7 +3634,7 @@
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L19" s="29">
         <v>1000</v>
@@ -3771,12 +3752,40 @@
       <c r="O23" s="27"/>
       <c r="P23" s="28"/>
     </row>
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13">
+        <v>22</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" s="24"/>
+      <c r="P24" s="25"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E1 E3:E23" xr:uid="{7AE1121B-6EA9-4ED9-96C4-0B6428E1A15A}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E2" xr:uid="{3B9C1AFF-F374-4F14-BA78-AAAB203B9D6C}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E2 E24" xr:uid="{3B9C1AFF-F374-4F14-BA78-AAAB203B9D6C}">
       <formula1>-1</formula1>
     </dataValidation>
   </dataValidations>
@@ -3789,12 +3798,12 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="92" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
@@ -3898,349 +3907,349 @@
         <v>58</v>
       </c>
       <c r="O2" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="P2" s="23" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="84">
+      <c r="A3" s="73">
         <v>1</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="87"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="62"/>
       <c r="O3" s="62"/>
       <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="84">
+      <c r="A4" s="73">
         <v>2</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88">
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76">
         <v>30000</v>
       </c>
-      <c r="M4" s="88"/>
-      <c r="N4" s="89"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="84">
+      <c r="A5" s="73">
         <v>3</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="80" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88" t="s">
+      <c r="E5" s="76"/>
+      <c r="F5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88">
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76">
         <v>15000</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="89"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="84">
+      <c r="A6" s="73">
         <v>4</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="90" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="89"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="84">
+      <c r="A7" s="73">
         <v>5</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="82" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="91">
+      <c r="L7" s="78">
         <v>10000</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="79"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="84">
+      <c r="A8" s="73">
         <v>6</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="83" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93" t="s">
+      <c r="E8" s="81"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="93"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
     <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="84">
+      <c r="A9" s="73">
         <v>7</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="93" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="96"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="83"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="84">
+      <c r="A10" s="73">
         <v>9</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="93" t="s">
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93" t="s">
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="96"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="83"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="84">
+      <c r="A11" s="73">
         <v>14</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="93" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="96"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="83"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84">
+      <c r="A12" s="73">
         <v>15</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="96"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="83"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77">
+      <c r="A13" s="71">
         <v>16</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="78" t="s">
+      <c r="C13" s="84"/>
+      <c r="D13" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97" t="s">
+      <c r="E13" s="84"/>
+      <c r="F13" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97">
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84">
         <v>20000</v>
       </c>
-      <c r="M13" s="97"/>
-      <c r="N13" s="98"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="85"/>
       <c r="O13" s="63"/>
       <c r="P13" s="63"/>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="99">
+      <c r="A14" s="86">
         <v>17</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78" t="s">
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="100" t="s">
+      <c r="J14" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78">
+      <c r="K14" s="72"/>
+      <c r="L14" s="72">
         <v>20000</v>
       </c>
-      <c r="M14" s="78"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="65">
+      <c r="A15" s="91">
         <v>18</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="80" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="G15" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="102" t="s">
-        <v>191</v>
-      </c>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4259,7 +4268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88502B4-0A6C-4340-8CEE-AB793B0A4CE5}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4371,10 +4380,10 @@
         <v>58</v>
       </c>
       <c r="O2" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="23" t="s">
         <v>186</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
